--- a/data/case1/15/P1_13.xlsx
+++ b/data/case1/15/P1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.039677441667350877</v>
+        <v>0.089251970589998564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999999839603646</v>
+        <v>-0.0099999998471282936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999842101758</v>
+        <v>-0.0089999998482390708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399612533513263</v>
+        <v>0.28399773688155605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999998484965289</v>
+        <v>-0.0059999998520590125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999998434996371</v>
+        <v>-0.0059999998467077376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999809781954</v>
+        <v>-0.019999999820512926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999809018121</v>
+        <v>-0.019999999818776537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999998420217082</v>
+        <v>-0.0059999998422730627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999999841876047</v>
+        <v>-0.0059999998404478561</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999998455175216</v>
+        <v>0.0045821768697855703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.052327459963260825</v>
+        <v>-0.0059999998398532206</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999998392656906</v>
+        <v>-0.0059999998376243369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999824138463</v>
+        <v>-0.011999999825985874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999998378330588</v>
+        <v>-0.0038239362800052135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999998372535224</v>
+        <v>-0.0059999998359669959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998365061202</v>
+        <v>-0.0059999998353124084</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999999829144123</v>
+        <v>-0.0089999998296708128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999998416923077</v>
+        <v>-0.0089999998489185273</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.020258671345485979</v>
+        <v>-0.0089999998476599785</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999998393226477</v>
+        <v>-0.0089999998474965537</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999998391405711</v>
+        <v>-0.008999999847353557</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999998405980719</v>
+        <v>-0.032443850751516123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999759135598</v>
+        <v>-0.04199999978403568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999757779349</v>
+        <v>-0.041999999782953878</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999998427784362</v>
+        <v>-0.0059999998462672011</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999998418422962</v>
+        <v>-0.0059999998455628756</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999998382016528</v>
+        <v>-0.0059999998428112988</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.01199999982127764</v>
+        <v>-0.011999999829988894</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0187357084313442</v>
+        <v>-0.019999999814461766</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999810875408</v>
+        <v>-0.01499999982241107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999796174507</v>
+        <v>-0.014762045723988315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.012254597225062724</v>
+        <v>-0.0059999998386244258</v>
       </c>
     </row>
   </sheetData>
